--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -12905,8 +12905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
